--- a/Supports files/resources_publisher.xlsx
+++ b/Supports files/resources_publisher.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4C270F-F278-45DA-B07E-DDD8CC204110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54571F85-D011-4396-A59A-9F86D680DABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,13 +663,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -677,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,13 +691,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,13 +705,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -719,13 +719,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,13 +733,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -747,13 +747,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,13 +775,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -817,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -845,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -873,13 +873,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
